--- a/progress/k_means_compiler.xlsx
+++ b/progress/k_means_compiler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACFDA362-B2CF-E943-93A5-596E1B1F9D0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2746615E-B4E9-DD4D-930B-8E03A93E944F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{272F01B3-618B-E44E-A780-ADC8FDFB66C9}"/>
+    <workbookView xWindow="420" yWindow="7340" windowWidth="28040" windowHeight="17440" xr2:uid="{272F01B3-618B-E44E-A780-ADC8FDFB66C9}"/>
   </bookViews>
   <sheets>
     <sheet name="standard" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>defalut</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>skin</t>
+  </si>
+  <si>
+    <t>Tom</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD8684-9EB3-EA4D-92BA-4DA3E57C4539}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,8 +464,11 @@
       <c r="J2">
         <v>292.125</v>
       </c>
+      <c r="L2">
+        <v>128.84899999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -478,8 +487,11 @@
       <c r="J3">
         <v>54.0167</v>
       </c>
+      <c r="L3">
+        <v>29.076499999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="J4">
         <v>39.943899999999999</v>
       </c>
+      <c r="L4">
+        <v>27.434799999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -517,6 +532,9 @@
       </c>
       <c r="J5">
         <v>40.113300000000002</v>
+      </c>
+      <c r="L5">
+        <v>27.4222</v>
       </c>
     </row>
   </sheetData>
